--- a/qa/WR34NewFltnew/result.xlsx
+++ b/qa/WR34NewFltnew/result.xlsx
@@ -527,13 +527,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>0.4459999999999997</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -706,6 +700,18 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="D13" t="n">
+        <v>19.445</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17.947</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17.212</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -738,13 +744,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>0.008999999999999453</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -917,6 +917,18 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
+      <c r="D24" t="n">
+        <v>18.091</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17.645</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16.981</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -949,13 +961,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1128,6 +1134,18 @@
       <c r="C35" t="s">
         <v>31</v>
       </c>
+      <c r="D35" t="n">
+        <v>18.123</v>
+      </c>
+      <c r="E35" t="n">
+        <v>19.222</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19.817</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
@@ -1160,13 +1178,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
+        <v>0.05599999999999916</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1339,6 +1351,18 @@
       <c r="C46" t="s">
         <v>31</v>
       </c>
+      <c r="D46" t="n">
+        <v>18.002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18.278</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19.115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
@@ -1371,13 +1395,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
+        <v>0.3549999999999995</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1550,6 +1568,18 @@
       <c r="C57" t="s">
         <v>31</v>
       </c>
+      <c r="D57" t="n">
+        <v>17.304</v>
+      </c>
+      <c r="E57" t="n">
+        <v>18.876</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
@@ -1582,13 +1612,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
+        <v>0.1680000000000001</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -1761,6 +1785,18 @@
       <c r="C68" t="s">
         <v>31</v>
       </c>
+      <c r="D68" t="n">
+        <v>21.003</v>
+      </c>
+      <c r="E68" t="n">
+        <v>25.178</v>
+      </c>
+      <c r="F68" t="n">
+        <v>23.062</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -1793,13 +1829,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
+        <v>0.2359999999999998</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -1972,6 +2002,18 @@
       <c r="C79" t="s">
         <v>31</v>
       </c>
+      <c r="D79" t="n">
+        <v>17.618</v>
+      </c>
+      <c r="E79" t="n">
+        <v>18.098</v>
+      </c>
+      <c r="F79" t="n">
+        <v>19.038</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
@@ -2004,13 +2046,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
+        <v>0.04699999999999971</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -2182,6 +2218,18 @@
       </c>
       <c r="C90" t="s">
         <v>31</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19.185</v>
+      </c>
+      <c r="E90" t="n">
+        <v>19.215</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19.524</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
